--- a/家計簿要件定義.xlsx
+++ b/家計簿要件定義.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5e076685b114b93/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D55C30F-C4D3-4D2D-8A5A-32968AF09E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{2D55C30F-C4D3-4D2D-8A5A-32968AF09E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CECAE22-CE8F-42F2-98A1-8F307F0E29E9}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能" sheetId="1" r:id="rId1"/>
+    <sheet name="画面リスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -148,6 +149,29 @@
   </si>
   <si>
     <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑色ページが必要</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑色はプルダウンみたいに出すイメージ</t>
+    <rPh sb="0" eb="2">
+      <t>ミドリイロ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -276,6 +300,1414 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1143000" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE228EE5-464B-4026-A403-19F75ADE8368}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="1119188"/>
+          <a:ext cx="1143000" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ホーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1529D56-04D2-4485-977E-23109D02BC31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1119188"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514EB07B-9773-4855-8DA5-16A0EB80925E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2014538"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>アカウント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545306</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545306</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4115F361-724F-3BC7-BD71-EA6EC1CDD95D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231106" y="1666876"/>
+          <a:ext cx="0" cy="347662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1595309" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382EB49C-7BF6-F902-FA64-D53E6B1CD055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="2562225"/>
+          <a:ext cx="1595309" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>アカウントが無い場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5762609F-A5F5-48D9-9615-90AD3A538772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1776412" y="1393032"/>
+          <a:ext cx="966788" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279829EA-FF17-46C7-B679-8D71A03342D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="2014538"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>月次収支</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FEEB67-0210-4FED-ADE3-A49C8C749C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="2909888"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>収支内訳</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80646CB7-2A87-44B2-8DC9-B05290F867DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="3805238"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>月次推移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1EE2DAB-7064-4D59-B8F6-B9C959D27D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="1119188"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>家計簿</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2EF89E-7C39-44C0-B102-76D8EBFF66E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="1119188"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>資産</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A980AB66-F925-42CD-842E-567BA7EE87A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="1119188"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>口座</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA6161D-09A8-42C7-9582-76092526A30B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="2014538"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>登録済み金融機関</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3C49DE-EBF7-4AF6-8359-A81E64F9FD16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="2909888"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>金融機関の追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A299C267-E19A-477E-9369-BB2072730EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="1119188"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4E0ABC-CBCD-4169-B3B5-94F72B749B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="2014538"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>アカウント設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D8649B-8B5E-477A-AC5A-F6A6C17E369C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="3805238"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>グループ設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF1DBA1-58EB-4055-AD81-226884EBECDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="2909888"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>家計簿の設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1573169-EB89-4B4D-8B1E-61F12B53D784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="2014538"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>資産内訳</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1090612" cy="547688"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DE3831-20DE-400F-AEA1-8C8D8B378D76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="2909888"/>
+          <a:ext cx="1090612" cy="547688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>資産推移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56336C42-2DD8-6D88-B066-077C0979450C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="876300"/>
+          <a:ext cx="10072688" cy="1014413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2159566" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D78EE3-5EE1-4B57-A31C-E6AB5758FDBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2509837" y="819150"/>
+          <a:ext cx="2159566" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>枠内はヘッダーで残すイメージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>543300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="タイムライン が含まれている画像&#10;&#10;自動的に生成された説明">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BE0D26-3373-C8FF-62B4-A3203F44BDF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="2414588"/>
+          <a:ext cx="2686425" cy="2238687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -619,4 +2051,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63149BAF-525C-4802-8738-718A16A05189}">
+  <dimension ref="D10:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="10" spans="5:5">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>